--- a/input_sample/sample2_abcdegfg.xlsx
+++ b/input_sample/sample2_abcdegfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestSpecAnalyticsCLI\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1A875D-2996-447D-9B2E-8C294FB02044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDDCBE8-2D5C-4833-A7FC-938FB262B6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="6375" windowWidth="20775" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="1455" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="32">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A10:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -714,6 +714,9 @@
       </c>
     </row>
     <row r="20" spans="11:21">
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
       <c r="O20" t="s">
         <v>22</v>
       </c>
@@ -728,6 +731,9 @@
       </c>
     </row>
     <row r="21" spans="11:21">
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
       <c r="O21" t="s">
         <v>6</v>
       </c>
@@ -739,6 +745,9 @@
       </c>
     </row>
     <row r="22" spans="11:21">
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
       <c r="O22" t="s">
         <v>6</v>
       </c>
@@ -750,6 +759,9 @@
       </c>
     </row>
     <row r="23" spans="11:21">
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
       <c r="O23" t="s">
         <v>6</v>
       </c>
@@ -761,6 +773,9 @@
       </c>
     </row>
     <row r="24" spans="11:21">
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
       <c r="O24" t="s">
         <v>6</v>
       </c>
@@ -772,6 +787,9 @@
       </c>
     </row>
     <row r="25" spans="11:21">
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
       <c r="O25" t="s">
         <v>6</v>
       </c>
@@ -783,6 +801,9 @@
       </c>
     </row>
     <row r="26" spans="11:21">
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
       <c r="O26" t="s">
         <v>6</v>
       </c>
@@ -794,6 +815,9 @@
       </c>
     </row>
     <row r="27" spans="11:21">
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
       <c r="O27" t="s">
         <v>6</v>
       </c>
@@ -805,6 +829,9 @@
       </c>
     </row>
     <row r="28" spans="11:21">
+      <c r="K28" t="s">
+        <v>31</v>
+      </c>
       <c r="O28" t="s">
         <v>6</v>
       </c>
@@ -816,6 +843,9 @@
       </c>
     </row>
     <row r="29" spans="11:21">
+      <c r="K29" t="s">
+        <v>31</v>
+      </c>
       <c r="O29" t="s">
         <v>6</v>
       </c>
@@ -827,6 +857,9 @@
       </c>
     </row>
     <row r="30" spans="11:21">
+      <c r="K30" t="s">
+        <v>31</v>
+      </c>
       <c r="O30" t="s">
         <v>6</v>
       </c>
@@ -838,6 +871,9 @@
       </c>
     </row>
     <row r="31" spans="11:21">
+      <c r="K31" t="s">
+        <v>31</v>
+      </c>
       <c r="O31" t="s">
         <v>6</v>
       </c>
@@ -849,6 +885,9 @@
       </c>
     </row>
     <row r="32" spans="11:21">
+      <c r="K32" t="s">
+        <v>31</v>
+      </c>
       <c r="O32" t="s">
         <v>6</v>
       </c>
@@ -859,7 +898,10 @@
         <v>45709</v>
       </c>
     </row>
-    <row r="33" spans="15:17">
+    <row r="33" spans="11:17">
+      <c r="K33" t="s">
+        <v>31</v>
+      </c>
       <c r="O33" t="s">
         <v>6</v>
       </c>
@@ -870,7 +912,10 @@
         <v>45710</v>
       </c>
     </row>
-    <row r="34" spans="15:17">
+    <row r="34" spans="11:17">
+      <c r="K34" t="s">
+        <v>31</v>
+      </c>
       <c r="O34" t="s">
         <v>6</v>
       </c>
@@ -881,7 +926,10 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="35" spans="15:17">
+    <row r="35" spans="11:17">
+      <c r="K35" t="s">
+        <v>31</v>
+      </c>
       <c r="O35" t="s">
         <v>6</v>
       </c>
@@ -892,7 +940,10 @@
         <v>45712</v>
       </c>
     </row>
-    <row r="36" spans="15:17">
+    <row r="36" spans="11:17">
+      <c r="K36" t="s">
+        <v>31</v>
+      </c>
       <c r="O36" t="s">
         <v>6</v>
       </c>
@@ -903,7 +954,10 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="37" spans="15:17">
+    <row r="37" spans="11:17">
+      <c r="K37" t="s">
+        <v>31</v>
+      </c>
       <c r="O37" t="s">
         <v>6</v>
       </c>
@@ -914,7 +968,10 @@
         <v>45714</v>
       </c>
     </row>
-    <row r="38" spans="15:17">
+    <row r="38" spans="11:17">
+      <c r="K38" t="s">
+        <v>31</v>
+      </c>
       <c r="O38" t="s">
         <v>6</v>
       </c>
@@ -925,7 +982,10 @@
         <v>45715</v>
       </c>
     </row>
-    <row r="39" spans="15:17">
+    <row r="39" spans="11:17">
+      <c r="K39" t="s">
+        <v>31</v>
+      </c>
       <c r="O39" t="s">
         <v>6</v>
       </c>
@@ -936,7 +996,10 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="40" spans="15:17">
+    <row r="40" spans="11:17">
+      <c r="K40" t="s">
+        <v>31</v>
+      </c>
       <c r="O40" t="s">
         <v>6</v>
       </c>
@@ -947,7 +1010,10 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="41" spans="15:17">
+    <row r="41" spans="11:17">
+      <c r="K41" t="s">
+        <v>31</v>
+      </c>
       <c r="O41" t="s">
         <v>6</v>
       </c>
@@ -958,7 +1024,10 @@
         <v>45718</v>
       </c>
     </row>
-    <row r="42" spans="15:17">
+    <row r="42" spans="11:17">
+      <c r="K42" t="s">
+        <v>31</v>
+      </c>
       <c r="O42" t="s">
         <v>6</v>
       </c>
@@ -969,7 +1038,10 @@
         <v>45719</v>
       </c>
     </row>
-    <row r="43" spans="15:17">
+    <row r="43" spans="11:17">
+      <c r="K43" t="s">
+        <v>31</v>
+      </c>
       <c r="O43" t="s">
         <v>6</v>
       </c>
@@ -980,7 +1052,10 @@
         <v>45720</v>
       </c>
     </row>
-    <row r="44" spans="15:17">
+    <row r="44" spans="11:17">
+      <c r="K44" t="s">
+        <v>31</v>
+      </c>
       <c r="O44" t="s">
         <v>6</v>
       </c>
@@ -991,7 +1066,10 @@
         <v>45721</v>
       </c>
     </row>
-    <row r="45" spans="15:17">
+    <row r="45" spans="11:17">
+      <c r="K45" t="s">
+        <v>31</v>
+      </c>
       <c r="O45" t="s">
         <v>6</v>
       </c>
@@ -1002,7 +1080,10 @@
         <v>45722</v>
       </c>
     </row>
-    <row r="46" spans="15:17">
+    <row r="46" spans="11:17">
+      <c r="K46" t="s">
+        <v>31</v>
+      </c>
       <c r="O46" t="s">
         <v>6</v>
       </c>
@@ -1013,7 +1094,10 @@
         <v>45723</v>
       </c>
     </row>
-    <row r="47" spans="15:17">
+    <row r="47" spans="11:17">
+      <c r="K47" t="s">
+        <v>31</v>
+      </c>
       <c r="O47" t="s">
         <v>6</v>
       </c>
@@ -1024,7 +1108,10 @@
         <v>45724</v>
       </c>
     </row>
-    <row r="48" spans="15:17">
+    <row r="48" spans="11:17">
+      <c r="K48" t="s">
+        <v>31</v>
+      </c>
       <c r="O48" t="s">
         <v>6</v>
       </c>
